--- a/SGameProject/assets/xlsx/roletype.xlsx
+++ b/SGameProject/assets/xlsx/roletype.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>typeid</t>
   </si>
@@ -132,6 +132,62 @@
         <scheme val="minor"/>
       </rPr>
       <t>,15</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,18</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,19</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -469,7 +525,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -513,11 +569,11 @@
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -541,11 +597,11 @@
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -555,11 +611,11 @@
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -569,11 +625,11 @@
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">

--- a/SGameProject/assets/xlsx/roletype.xlsx
+++ b/SGameProject/assets/xlsx/roletype.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20385" windowHeight="7935"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="roletype" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>typeid</t>
   </si>
@@ -43,6 +43,29 @@
     <t>bear</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,5</t>
+    </r>
+  </si>
+  <si>
+    <t>0,16</t>
+  </si>
+  <si>
     <t>cat</t>
   </si>
   <si>
@@ -55,16 +78,65 @@
     <t>chicken</t>
   </si>
   <si>
+    <t>0,17</t>
+  </si>
+  <si>
     <t>fox</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,18</t>
+    </r>
+  </si>
+  <si>
     <t>frog</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,19</t>
+    </r>
+  </si>
+  <si>
     <t>stone</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>c</t>
     </r>
     <r>
@@ -73,30 +145,36 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>har20</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char25</t>
   </si>
   <si>
     <t>char27</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>char29</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>char35</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone2</t>
   </si>
   <si>
     <t>char38</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>3</t>
     </r>
     <r>
@@ -105,22 +183,18 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>,4</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>char25</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>0</t>
     </r>
     <r>
@@ -129,74 +203,25 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>,15</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,5</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,17</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,18</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,19</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>downrole</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -210,27 +235,358 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -238,29 +594,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -521,20 +1160,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +1188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -562,192 +1202,205 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1">
         <v>999</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1">
         <v>3</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1">
         <v>3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1">
         <v>999</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1">
+        <v>999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
--- a/SGameProject/assets/xlsx/roletype.xlsx
+++ b/SGameProject/assets/xlsx/roletype.xlsx
@@ -139,31 +139,31 @@
     <t>downrole</t>
   </si>
   <si>
-    <t>4,5,6</t>
+    <t>4,5,6,7</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3,4,5</t>
+    <t>3,4,5,7</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0,16,22</t>
+    <t>0,16,22,27</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0,7,21</t>
+    <t>0,7,21,26</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0,17,23</t>
+    <t>0,17,23,28</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0,18,24</t>
+    <t>0,18,24,29</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0,19,25</t>
+    <t>0,19,25,30</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +499,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/SGameProject/assets/xlsx/roletype.xlsx
+++ b/SGameProject/assets/xlsx/roletype.xlsx
@@ -139,10 +139,6 @@
     <t>downrole</t>
   </si>
   <si>
-    <t>4,5,6,7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3,4,5,7</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -165,6 +161,9 @@
   <si>
     <t>0,19,25,30</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5,6</t>
   </si>
 </sst>
 </file>
@@ -499,7 +498,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -543,11 +542,11 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -558,10 +557,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -572,10 +571,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -586,10 +585,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -600,10 +599,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
